--- a/hardware/docs/09-chip_test/项目要求/硬件需求表-12k222.xlsx
+++ b/hardware/docs/09-chip_test/项目要求/硬件需求表-12k222.xlsx
@@ -186,7 +186,7 @@
         2. 支持读写到DDR的数据包大于100MB，为.txt的十六进制文件
         3. 读写DDR延时小于5周期(25ns)，带宽须大于512bitx200MHz
     2. VC707的FMC口外接芯片，芯片对DDR的数据进行读写
-        1. FPGA工作频率≥200 MHz，芯片单路读写带宽可配置为64bit/128bit/256bit/512bitx 200MHz，支持外设芯片多路读写，外设芯片发起读请求到接收数据延时小于5个时钟周期(25ns)
+        1. FPGA工作频率≥200 MHz，芯片单路读写带宽可配置为512bitx 200MHz，支持外设芯片多路读写，外设芯片发起读请求到接收数据延时小于5个时钟周期(25ns)
         2. CHIP芯片与FMC的通信接口如下图所示verilog的module，为简化版AHB协议
     3. 支持PC实时监测FPGA状态(比如获取指针，可以利用这些指针打印出信息和做出下一步指示(指示包括读写DDR直接控制外设芯片的控制信号Start reset)
         1. 实时监测DDR状态：随时读取和写入DDR任意地址的数据
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +269,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +461,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,7 +820,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -933,7 +944,7 @@
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="298.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="14"/>
@@ -970,8 +981,8 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
